--- a/S4_Backpropagation/Back_Propagation_Understanding.xlsx
+++ b/S4_Backpropagation/Back_Propagation_Understanding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anila\Desktop\AI\EVA6-P1\EVA6-S4-Understanding Backprop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B6F681-4CA6-4200-86CF-6ED20E526806}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33A832E-760C-4BE2-8F8B-699612250016}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4037148-E97C-47E3-A61C-1DB2B5CD4E8B}"/>
   </bookViews>
@@ -349,9 +349,6 @@
     <t>∂E_Tot/∂w1 = ∂E_Tot/∂a_h1 * ∂a_h1/∂h1 * ∂h1/∂w1</t>
   </si>
   <si>
-    <t>∂E_Tot/∂a_h1 = ∂E1/∂a_h1 + ∂E2/∂a_h2</t>
-  </si>
-  <si>
     <t>∂a_o1/∂o1  = a_o1 * (1-a_o1)</t>
   </si>
   <si>
@@ -398,6 +395,9 @@
   </si>
   <si>
     <t>Iterations</t>
+  </si>
+  <si>
+    <t>∂E_Tot/∂a_h1 = ∂E1/∂a_h1 + ∂E2/∂a_h1</t>
   </si>
 </sst>
 </file>
@@ -4359,7 +4359,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -11007,7 +11006,7 @@
         <v>5</v>
       </c>
       <c r="Y6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="4:34" x14ac:dyDescent="0.3">
@@ -11060,27 +11059,27 @@
     </row>
     <row r="13" spans="4:34" x14ac:dyDescent="0.3">
       <c r="X13" s="5" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="4:34" x14ac:dyDescent="0.3">
       <c r="X14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="4:34" x14ac:dyDescent="0.3">
       <c r="X15" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="4:34" x14ac:dyDescent="0.3">
       <c r="X16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="X17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.3">
@@ -11090,42 +11089,42 @@
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.3">
       <c r="R20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.3">
       <c r="R21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.3">
       <c r="R22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="R24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.3">
       <c r="R25" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.3">
       <c r="R26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.3">
       <c r="R27" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.3">
       <c r="J30" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K30" s="12">
         <v>0.1</v>
@@ -18129,7 +18128,7 @@
     </row>
     <row r="83" spans="1:51" x14ac:dyDescent="0.3">
       <c r="J83" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K83" s="12">
         <v>0.2</v>
@@ -24466,7 +24465,7 @@
     </row>
     <row r="136" spans="1:31" x14ac:dyDescent="0.3">
       <c r="J136" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K136" s="12">
         <v>0.5</v>
@@ -30783,7 +30782,7 @@
     </row>
     <row r="189" spans="1:31" x14ac:dyDescent="0.3">
       <c r="J189" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K189" s="12">
         <v>0.8</v>
@@ -37100,7 +37099,7 @@
     </row>
     <row r="242" spans="1:31" x14ac:dyDescent="0.3">
       <c r="J242" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K242" s="12">
         <v>1</v>
@@ -43417,7 +43416,7 @@
     </row>
     <row r="295" spans="1:31" x14ac:dyDescent="0.3">
       <c r="J295" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K295" s="12">
         <v>2</v>
@@ -49768,7 +49767,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>35</v>
@@ -52393,10 +52392,10 @@
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>71</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -52451,7 +52450,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="13">
